--- a/inventory/CORPUS OF INSCRIPTIONS IN PYU LANGUAGE.xlsx
+++ b/inventory/CORPUS OF INSCRIPTIONS IN PYU LANGUAGE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="16140"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="204">
   <si>
     <t>Myazedi pagoda, Myinkaba</t>
   </si>
@@ -253,9 +253,6 @@
     <t>(Faces:)Lines</t>
   </si>
   <si>
-    <t>Other language(s)</t>
-  </si>
-  <si>
     <t>Date (CE)</t>
   </si>
   <si>
@@ -269,9 +266,6 @@
   </si>
   <si>
     <t>"Gravestone"</t>
-  </si>
-  <si>
-    <t>nil</t>
   </si>
   <si>
     <t>4th century</t>
@@ -432,9 +426,6 @@
     <t>During or after the Chinese invasion of Pagan in 1287 CE</t>
   </si>
   <si>
-    <t>Chinese</t>
-  </si>
-  <si>
     <t>Near the Tharaba gate, Pagan</t>
   </si>
   <si>
@@ -495,9 +486,6 @@
     <t>Pagan Museum, inv. nr. XXX</t>
   </si>
   <si>
-    <t>PPPB I, 149; II, pl. 52b</t>
-  </si>
-  <si>
     <t>Hpayahtaung, mound 31(D)</t>
   </si>
   <si>
@@ -546,9 +534,6 @@
     <t>Khin Ba Gon relic chamber</t>
   </si>
   <si>
-    <t>PPPB I, 137; II, pl. 28-29.</t>
-  </si>
-  <si>
     <t>Bottom of stone urn</t>
   </si>
   <si>
@@ -687,29 +672,172 @@
     <t>silver bowl</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>bronze sculpture</t>
   </si>
   <si>
-    <t>photo Don Stadtner</t>
-  </si>
-  <si>
-    <t>photos Don Stadtner</t>
-  </si>
-  <si>
     <t>Chaem Kawklai</t>
   </si>
   <si>
     <t>Mahlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sein Win 1997; photo Don Stadtner, Ancient Pagan; Naing Zaw 2011: 546-7 </t>
+  </si>
+  <si>
+    <t>near Myinmu</t>
+  </si>
+  <si>
+    <t>Naing Zaw 2011: 87</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1930–4, I, 246-7;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PPPB I, 149; II, pl. 52c</t>
+    </r>
+  </si>
+  <si>
+    <t>IB 356b</t>
+  </si>
+  <si>
+    <t>Khin Ba Gon</t>
+  </si>
+  <si>
+    <t>Ushit-bin Village, Lewe Township, near Pyinmana (near the new capital)</t>
+  </si>
+  <si>
+    <t>broken stela</t>
+  </si>
+  <si>
+    <t>discovered in 2013 and known as Saw Lu inscription</t>
+  </si>
+  <si>
+    <t>boulder</t>
+  </si>
+  <si>
+    <t>A:19, B:3</t>
+  </si>
+  <si>
+    <t>A:?, B:?</t>
+  </si>
+  <si>
+    <t>Kunzeik, bank of Sittaung</t>
+  </si>
+  <si>
+    <t>near Mandalay</t>
+  </si>
+  <si>
+    <t>Joost Buschman, priv. coll.</t>
+  </si>
+  <si>
+    <t>photos received from Don Stadtner</t>
+  </si>
+  <si>
+    <t>Llanguage(s)</t>
+  </si>
+  <si>
+    <t>Pyu</t>
+  </si>
+  <si>
+    <t>Pyu, Chinese</t>
+  </si>
+  <si>
+    <t>Sanskrit, Pyu</t>
+  </si>
+  <si>
+    <t>Pali, Pyu</t>
+  </si>
+  <si>
+    <t>Pali</t>
+  </si>
+  <si>
+    <t>Pyu; Pali in LSB and Mon scripts; Mon?</t>
+  </si>
+  <si>
+    <t>Skilling, New Pali Inscriptions from Southeast Asia, p. 153</t>
+  </si>
+  <si>
+    <t>Shwe-daga-myo</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>29+</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Pegu Palace Museum</t>
+  </si>
+  <si>
+    <t>Ashmolean??</t>
+  </si>
+  <si>
+    <t>6 fragments</t>
+  </si>
+  <si>
+    <t>Pali (&amp;Pyu?)</t>
+  </si>
+  <si>
+    <t>Bawbawgyi</t>
+  </si>
+  <si>
+    <t>stone fragments</t>
+  </si>
+  <si>
+    <t>KALAŚAPURA</t>
+  </si>
+  <si>
+    <t>Sircar</t>
+  </si>
+  <si>
+    <t>PPPB I, 137; II, pl. 28-29 — Falk 1997: 88-91.</t>
+  </si>
+  <si>
+    <t>gold leaves</t>
+  </si>
+  <si>
+    <t>Śrīkṣetra</t>
+  </si>
+  <si>
+    <t>National Museum, Yangon</t>
+  </si>
+  <si>
+    <t>Falk 1997</t>
+  </si>
+  <si>
+    <t>Maunggun, Hmawza</t>
+  </si>
+  <si>
+    <t>Tun Nyein, EI 5, 101 — Finot 1912 :131 —</t>
+  </si>
+  <si>
+    <t>Finot 1912: 134-135 — Finot 1913.</t>
+  </si>
+  <si>
+    <t>Terracotta tablet in three fragments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -824,6 +952,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -902,7 +1036,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -932,26 +1066,8 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -962,32 +1078,9 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1006,6 +1099,30 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1305,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1344,104 +1461,106 @@
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="F3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="34" t="s">
+      <c r="J3" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+        <v>45</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" ht="59">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="12">
         <v>2</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="H5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="I5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="14"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="70">
       <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="F6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14" t="s">
+      <c r="H6" s="11"/>
+      <c r="I6" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="J6" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="28">
@@ -1449,27 +1568,29 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="28">
@@ -1477,1070 +1598,1322 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="14"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="28">
       <c r="A9" s="10">
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="14"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" ht="28">
       <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="14"/>
+      <c r="I10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="56">
       <c r="A11" s="10">
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
+      <c r="F11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="14"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="28">
       <c r="A12" s="10">
         <v>8</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="14" t="s">
+      <c r="H12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="14"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="28">
       <c r="A13" s="10">
         <v>9</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>69</v>
+      <c r="B13" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="14" t="s">
+      <c r="H13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="14"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="10">
         <v>10</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:10" ht="70">
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" ht="28">
       <c r="A15" s="10">
         <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="G15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="14"/>
+      <c r="J15" s="11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="42">
       <c r="A16" s="10">
         <v>12</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="56">
+      <c r="A17" s="15">
+        <v>13</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" ht="56">
+      <c r="A18" s="15">
         <v>14</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="B18" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" ht="28">
+      <c r="A19" s="15">
         <v>15</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="B19" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" ht="28">
+      <c r="A20" s="15">
+        <v>16</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" ht="28">
+      <c r="A21" s="15">
+        <v>17</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="16">
+        <v>8</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" ht="28">
+      <c r="A22" s="15">
+        <v>18</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="15">
+        <v>19</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="16">
+        <v>3</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" ht="28">
+      <c r="A24" s="15">
+        <v>20</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="16">
+        <v>5</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="15">
+        <v>21</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="15">
+        <v>22</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" s="6" customFormat="1" ht="84">
+      <c r="A27" s="15">
+        <v>23</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="28">
+      <c r="A28" s="15">
+        <v>24</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="15">
         <v>25</v>
       </c>
-      <c r="J16" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="56">
-      <c r="A17" s="21">
-        <v>13</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" ht="56">
-      <c r="A18" s="21">
-        <v>14</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" ht="28">
-      <c r="A19" s="21">
-        <v>15</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" ht="28">
-      <c r="A20" s="21">
-        <v>16</v>
-      </c>
-      <c r="B20" s="20" t="s">
+      <c r="B29" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15" t="s">
+      <c r="H29" s="14"/>
+      <c r="I29" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="28">
+      <c r="A30" s="15">
+        <v>26</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="15">
+        <v>27</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="1:10" ht="28">
+      <c r="A32" s="15">
+        <v>28</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="J20" s="15"/>
-    </row>
-    <row r="21" spans="1:10" ht="28">
-      <c r="A21" s="21">
-        <v>17</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="22">
-        <v>8</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="J21" s="15"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="21">
-        <v>18</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="J22" s="15"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="21">
-        <v>19</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="22">
-        <v>3</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-    </row>
-    <row r="24" spans="1:10" ht="28">
-      <c r="A24" s="21">
-        <v>20</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="22">
-        <v>5</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="21">
-        <v>21</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="21">
-        <v>22</v>
-      </c>
-      <c r="B26" s="20" t="s">
+      <c r="G32" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="1:10" ht="28">
+      <c r="A33" s="15">
+        <v>29</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="15">
+        <v>30</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="15">
+        <v>31</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="15">
+        <v>32</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J26" s="15"/>
-    </row>
-    <row r="27" spans="1:10" s="6" customFormat="1" ht="84">
-      <c r="A27" s="24">
-        <v>23</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="28">
-      <c r="A28" s="21">
-        <v>24</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="J28" s="15"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="21">
-        <v>25</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="28">
-      <c r="A30" s="21">
-        <v>26</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="21">
-        <v>27</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15" t="s">
+      <c r="C36" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="15">
+        <v>33</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="15">
+        <v>34</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="15"/>
+      <c r="B39" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J39" s="14"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="15">
+        <v>36</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="J40" s="14"/>
+    </row>
+    <row r="41" spans="1:10" ht="42">
+      <c r="A41" s="15">
+        <v>37</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="15">
+        <v>38</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="1:10" ht="28">
+      <c r="A43" s="15">
+        <v>39</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="15">
+        <v>40</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="1:10" ht="28">
+      <c r="A45" s="15">
+        <v>41</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="J31" s="15"/>
-    </row>
-    <row r="32" spans="1:10" ht="28">
-      <c r="A32" s="21">
-        <v>28</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-    </row>
-    <row r="33" spans="1:10" ht="28">
-      <c r="A33" s="21">
-        <v>29</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="21">
-        <v>30</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="21">
-        <v>31</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="21">
-        <v>32</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="G36" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="21">
-        <v>33</v>
-      </c>
-      <c r="B37" s="20" t="s">
+      <c r="D45" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="J45" s="14"/>
+    </row>
+    <row r="46" spans="1:10" ht="28">
+      <c r="A46" s="15">
+        <v>42</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="J46" s="14"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="15">
+        <v>43</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+    </row>
+    <row r="48" spans="1:10" ht="28">
+      <c r="A48" s="15">
+        <v>44</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="15">
+        <v>45</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="1:10" ht="28">
+      <c r="A50" s="15">
+        <v>46</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="16"/>
+      <c r="D50" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J50" s="14"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="15"/>
+      <c r="B51" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C51" s="16"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="J51" s="14"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="15"/>
+      <c r="B52" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="16"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J52" s="14"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="15"/>
+      <c r="B53" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J53" s="14"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="15"/>
+      <c r="B54" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C54" s="16"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="J54" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="15"/>
+      <c r="B55" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="27" t="s">
+      <c r="C55" s="16"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="21">
-        <v>34</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="28"/>
-      <c r="B39" s="29" t="s">
+      <c r="J55" s="14"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15" t="s">
+      <c r="H58" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="J39" s="15"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="33">
-        <v>36</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="J40" s="15"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="33">
-        <v>37</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="J41" s="15"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29" t="s">
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="J42" s="15"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="28"/>
-      <c r="B43" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="J43" s="15"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="28"/>
-      <c r="B44" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="J44" s="15"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="21"/>
-      <c r="B45" s="20" t="s">
+      <c r="H59" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15" t="s">
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="J45" s="15"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30" t="s">
+      <c r="H60" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="H48" s="30" t="s">
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30" t="s">
+      <c r="H61" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="H49" s="30" t="s">
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30" t="s">
+      <c r="H62" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="H50" s="30" t="s">
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30" t="s">
+      <c r="H63" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="H51" s="30" t="s">
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30" t="s">
+      <c r="H64" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="H52" s="30" t="s">
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30" t="s">
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="H53" s="30" t="s">
+      <c r="H66" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30" t="s">
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="H54" s="30" t="s">
+      <c r="H67" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="H56" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="H57" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="9">
